--- a/cms_admin/template/user_list_template.xlsx
+++ b/cms_admin/template/user_list_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work_folder\workspace_python\multi-talent\app\static\cms_admin\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C5F69B-F4B2-4D00-8F26-C46A2E935D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4AF88E-D0B7-499A-92F0-7471108F7E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31920" yWindow="-1090" windowWidth="26350" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user_list" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
   <si>
     <t>名前（姓）</t>
   </si>
@@ -80,10 +80,6 @@
   </si>
   <si>
     <t>備考</t>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>USER_TYPE</t>
@@ -383,13 +379,70 @@
   </si>
   <si>
     <t>海外</t>
+  </si>
+  <si>
+    <t>顧客リスト</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳江</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トクエ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショウイチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tokusyou.ri@bit-jp.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-9849-7439</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>230-0051</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横浜市鶴見区鶴見中央</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-12-30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000-10-07</t>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +455,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -443,15 +504,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -730,177 +795,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="16.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.58203125" customWidth="1"/>
-    <col min="5" max="5" width="19.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.58203125" customWidth="1"/>
-    <col min="8" max="8" width="20.4140625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.58203125" customWidth="1"/>
-    <col min="11" max="11" width="13.9140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.4140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.58203125" customWidth="1"/>
-    <col min="15" max="15" width="24.4140625" customWidth="1"/>
-    <col min="16" max="16" width="38.33203125" customWidth="1"/>
-    <col min="17" max="17" width="45.5" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.58203125" customWidth="1"/>
+    <col min="4" max="4" width="19.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.58203125" customWidth="1"/>
+    <col min="7" max="7" width="20.4140625" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.58203125" customWidth="1"/>
+    <col min="10" max="10" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.58203125" customWidth="1"/>
+    <col min="14" max="14" width="24.4140625" customWidth="1"/>
+    <col min="15" max="15" width="38.33203125" customWidth="1"/>
+    <col min="16" max="16" width="45.5" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{B736C27D-0F72-471E-A3C2-2B4141C57163}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -908,31 +1010,31 @@
           <x14:formula1>
             <xm:f>code!$A$3:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F23</xm:sqref>
+          <xm:sqref>E4:E24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E002B50C-1344-4853-8CFE-07747DE5D7D2}">
           <x14:formula1>
             <xm:f>code!$B$3:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K23</xm:sqref>
+          <xm:sqref>J4:J24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{73D83775-525C-4E1C-9EB1-B5B8D3F70DB5}">
           <x14:formula1>
             <xm:f>code!$C$3:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L23</xm:sqref>
+          <xm:sqref>K4:K24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF8A30FC-F352-4C21-ADE0-35A4AFDC84FB}">
           <x14:formula1>
             <xm:f>code!$D$3:$D$14</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M23</xm:sqref>
+          <xm:sqref>L5:L24 L4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E88D086-58CA-4E89-89EF-1F43F0215B78}">
           <x14:formula1>
             <xm:f>code!$E$3:$E$78</xm:f>
           </x14:formula1>
-          <xm:sqref>O3:O23</xm:sqref>
+          <xm:sqref>N4:N24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -945,7 +1047,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -976,322 +1078,322 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="E15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="E16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
